--- a/biology/Zoologie/Eupithecia_graphata/Eupithecia_graphata.xlsx
+++ b/biology/Zoologie/Eupithecia_graphata/Eupithecia_graphata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupithecia graphata est une espèce européenne de lépidoptères (papillons) de la famille des Geometridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est de 17 à 21 mm.
 Les imagos volent d'avril à mai et à nouveau de juillet à août.
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve Eupithecia graphata dans la plupart des pays du sud et de l'est de l'Europe, ainsi qu'au Proche-Orient[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve Eupithecia graphata dans la plupart des pays du sud et de l'est de l'Europe, ainsi qu'au Proche-Orient.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille se nourrit d'espèces de Minuartia et de Gypsophila, de même que Jurinea mollis[3] et Spergularia segetalis.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit d'espèces de Minuartia et de Gypsophila, de même que Jurinea mollis et Spergularia segetalis.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Eupithecia graphata graphata
 Eupithecia graphata albofasciata Staudinger, 1879
